--- a/biology/Médecine/Méso_(anatomie)/Méso_(anatomie).xlsx
+++ b/biology/Médecine/Méso_(anatomie)/Méso_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9so_(anatomie)</t>
+          <t>Méso_(anatomie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, un méso est un accolement de deux feuillets de séreuse reliant la partie pariétale avec la partie viscérale. La plupart des organes abdominaux sont tapissés par le péritoine et ils sont suspendus dans la cavité abdominale par des mésos à l'intérieur desquels cheminent les artères et les nerfs qui leur sont destinés. La notion de méso ne se limite pas uniquement au péritoine, mais à toute cavité séreuse confondue (d'où l'existence d'un méso du poumon dans le cas de la plèvre).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9so_(anatomie)</t>
+          <t>Méso_(anatomie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste de mésos</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les anatomistes établirent une liste de mésos[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les anatomistes établirent une liste de mésos :
 mésogastre : le méso de l'estomac ;
 mésentère : le méso de l'intestin grêle ;
 mésocôlon transverse : le méso du côlon transverse ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9so_(anatomie)</t>
+          <t>Méso_(anatomie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Autres replis du péritoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Épiploon
 Ligament suspenseur du foie, ligament phrénico-colique
